--- a/test.xlsx
+++ b/test.xlsx
@@ -62,55 +62,22 @@
     <t>実施日</t>
   </si>
   <si>
-    <t>if(!findIf(line, linenumber))</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>if(!findElseIf(line, linenumber))</t>
-  </si>
-  <si>
-    <t>if(itr-&gt;second == "else")</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>if(itr-&gt;first &gt;= methodItr-&gt;first)//条件式の行数がメソッドの行数より大きかったら</t>
-  </si>
-  <si>
-    <t>if(*pLine != char(0x09) &amp;&amp; *pLine != char(0x20))</t>
-  </si>
-  <si>
-    <t>if(str.find("class") != std::string::npos)</t>
-  </si>
-  <si>
-    <t>if(str.find("if") != std::string::npos)</t>
-  </si>
-  <si>
-    <t>if(str.find("while") != std::string::npos)</t>
-  </si>
-  <si>
-    <t>if(str.find(char(0x20)) == -1)</t>
-  </si>
-  <si>
-    <t>if(str.rfind(")") != str.length() - 1)</t>
-  </si>
-  <si>
-    <t>if(*pLine == 'i')</t>
-  </si>
-  <si>
-    <t>if(IsI &amp;&amp; *pLine == 'f')</t>
-  </si>
-  <si>
-    <t>if(*pLine != char(0x09) &amp;&amp; *pLine != char(0x20))//タブかスペースなら探索を続ける</t>
-  </si>
-  <si>
-    <t>if(idx == 0)</t>
+    <t>int main()</t>
+  </si>
+  <si>
+    <t>void read()</t>
+  </si>
+  <si>
+    <t>void writeExcel()</t>
+  </si>
+  <si>
+    <t>void writeHeader()</t>
+  </si>
+  <si>
+    <t>void findMethod(std::string&amp; line)</t>
+  </si>
+  <si>
+    <t>bool findConditional(std::string&amp; line, const char* target)</t>
   </si>
   <si>
     <t>main.cpp</t>
@@ -499,231 +466,77 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="E6" t="s">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="E10" t="s">
-        <v>11</v>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" t="s">
-        <v>11</v>
+      <c r="D13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" t="s">
-        <v>11</v>
+      <c r="D15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>11</v>
+      <c r="D19" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -65,19 +65,70 @@
     <t>int main()</t>
   </si>
   <si>
+    <t>while(itr != methods.end())</t>
+  </si>
+  <si>
     <t>void read()</t>
   </si>
   <si>
+    <t>while(std::getline(file, line))</t>
+  </si>
+  <si>
+    <t>if(!findConditional(line, "if"))</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>if(!findConditional(line, "else if"))</t>
+  </si>
+  <si>
     <t>void writeExcel()</t>
   </si>
   <si>
+    <t>if(!method.second.empty())</t>
+  </si>
+  <si>
+    <t>if(conditional.find("if") != std::string::npos)</t>
+  </si>
+  <si>
     <t>void writeHeader()</t>
   </si>
   <si>
     <t>void findMethod(std::string&amp; line)</t>
   </si>
   <si>
+    <t>while(pLine != NULL)</t>
+  </si>
+  <si>
+    <t>if(*pLine != char(0x09) &amp;&amp; *pLine != char(0x20))</t>
+  </si>
+  <si>
+    <t>if(str.find("class") != std::string::npos)</t>
+  </si>
+  <si>
+    <t>if(str.find("if") != std::string::npos)</t>
+  </si>
+  <si>
+    <t>if(str.find("while") != std::string::npos)</t>
+  </si>
+  <si>
+    <t>if(str.find("for") != std::string::npos)</t>
+  </si>
+  <si>
+    <t>if(str.find(char(0x20)) == -1)</t>
+  </si>
+  <si>
+    <t>if(str.rfind(")") != str.length() - 1)</t>
+  </si>
+  <si>
     <t>bool findConditional(std::string&amp; line, const char* target)</t>
+  </si>
+  <si>
+    <t>if(idx == 0)</t>
   </si>
   <si>
     <t>main.cpp</t>
@@ -466,77 +517,209 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="D6" t="s">
-        <v>10</v>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" t="s">
-        <v>13</v>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="s">
-        <v>13</v>
+      <c r="E14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="s">
-        <v>13</v>
+      <c r="E16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -65,9 +65,6 @@
     <t>int main()</t>
   </si>
   <si>
-    <t>while(itr != methods.end())</t>
-  </si>
-  <si>
     <t>void read()</t>
   </si>
   <si>
@@ -131,7 +128,14 @@
     <t>if(idx == 0)</t>
   </si>
   <si>
+    <t>void getGitHash()</t>
+  </si>
+  <si>
     <t>main.cpp</t>
+  </si>
+  <si>
+    <t>git hash:03115a98ab801f3b1a31074bfe129609eaa0f322
+</t>
   </si>
 </sst>
 </file>
@@ -489,6 +493,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="4">
       <c r="B4" t="s">
         <v>1</v>
@@ -520,81 +529,86 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" t="s">
-        <v>15</v>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
+      <c r="E18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -602,12 +616,12 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -615,12 +629,12 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -628,12 +642,12 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -641,12 +655,12 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -654,12 +668,12 @@
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -667,59 +681,51 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>15</v>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
+      <c r="E34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s">
         <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -71,7 +71,7 @@
     <t>while(std::getline(file, line))</t>
   </si>
   <si>
-    <t>if(!findConditional(line, "if"))</t>
+    <t>if(findConditional(line, "if"))</t>
   </si>
   <si>
     <t>true</t>
@@ -80,7 +80,31 @@
     <t>false</t>
   </si>
   <si>
-    <t>if(!findConditional(line, "else if"))</t>
+    <t>if(findConditional(line, "else if"))</t>
+  </si>
+  <si>
+    <t>if(findConditional(line, "else"))</t>
+  </si>
+  <si>
+    <t>if(findConditional(line, "while"))</t>
+  </si>
+  <si>
+    <t>if(findConditional(line, "try"))</t>
+  </si>
+  <si>
+    <t>if(findConditional(line, "catch"))</t>
+  </si>
+  <si>
+    <t>if(findConditional(line, "finally"))</t>
+  </si>
+  <si>
+    <t>if(findConditional(line, "switch"))</t>
+  </si>
+  <si>
+    <t>if(findConditional(line, "case"))</t>
+  </si>
+  <si>
+    <t>if(findConditional(line, "default"))</t>
   </si>
   <si>
     <t>void writeExcel()</t>
@@ -107,12 +131,6 @@
     <t>if(str.find("class") != std::string::npos)</t>
   </si>
   <si>
-    <t>if(str.find("if") != std::string::npos)</t>
-  </si>
-  <si>
-    <t>if(str.find("while") != std::string::npos)</t>
-  </si>
-  <si>
     <t>if(str.find("for") != std::string::npos)</t>
   </si>
   <si>
@@ -125,16 +143,13 @@
     <t>bool findConditional(std::string&amp; line, const char* target)</t>
   </si>
   <si>
-    <t>if(idx == 0)</t>
-  </si>
-  <si>
     <t>void getGitHash()</t>
   </si>
   <si>
     <t>main.cpp</t>
   </si>
   <si>
-    <t>git hash:03115a98ab801f3b1a31074bfe129609eaa0f322
+    <t>git hash:df41d99697ae43903823b104a599c94079f504a2
 </t>
   </si>
 </sst>
@@ -495,7 +510,7 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +541,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -561,124 +576,129 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="11">
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="s">
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="D17" t="s">
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="s">
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="s">
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="s">
+      <c r="D29" t="s">
         <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -689,25 +709,25 @@
         <v>14</v>
       </c>
     </row>
+    <row r="31">
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
         <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -723,9 +743,69 @@
         <v>14</v>
       </c>
     </row>
+    <row r="37">
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="38">
-      <c r="C38" t="s">
-        <v>31</v>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
